--- a/dataanalysis/data/predictions/1600/07301508_1509.xlsx
+++ b/dataanalysis/data/predictions/1600/07301508_1509.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="197">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-30</t>
   </si>
   <si>
@@ -602,12 +605,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -965,13 +962,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,19 +1071,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.699999999999999</v>
@@ -1104,7 +1104,7 @@
         <v>92393.53999999999</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1145,8 +1145,23 @@
       <c r="W2">
         <v>0.67</v>
       </c>
+      <c r="X2">
+        <v>5.77</v>
+      </c>
+      <c r="Y2">
+        <v>5.9</v>
+      </c>
+      <c r="Z2">
+        <v>9.869999999999999</v>
+      </c>
       <c r="AC2" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1154,22 +1169,25 @@
       <c r="AG2">
         <v>6.514227867126465</v>
       </c>
-      <c r="AH2" t="s">
-        <v>196</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-3.36</v>
@@ -1187,7 +1205,7 @@
         <v>48926.02</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1228,8 +1246,23 @@
       <c r="W3">
         <v>-0.85</v>
       </c>
+      <c r="X3">
+        <v>-2.51</v>
+      </c>
+      <c r="Y3">
+        <v>21.58</v>
+      </c>
+      <c r="Z3">
+        <v>0.14</v>
+      </c>
       <c r="AC3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1237,22 +1270,25 @@
       <c r="AG3">
         <v>6.185483455657959</v>
       </c>
-      <c r="AH3" t="s">
-        <v>196</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-6.33</v>
@@ -1270,7 +1306,7 @@
         <v>94658.92999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1311,8 +1347,23 @@
       <c r="W4">
         <v>-1.32</v>
       </c>
+      <c r="X4">
+        <v>1.77</v>
+      </c>
+      <c r="Y4">
+        <v>6.46</v>
+      </c>
+      <c r="Z4">
+        <v>4.03</v>
+      </c>
       <c r="AC4" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1320,22 +1371,25 @@
       <c r="AG4">
         <v>5.539409160614014</v>
       </c>
-      <c r="AH4" t="s">
-        <v>196</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.55</v>
@@ -1353,7 +1407,7 @@
         <v>64457.26</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5">
         <v>14</v>
@@ -1394,8 +1448,23 @@
       <c r="W5">
         <v>-0.96</v>
       </c>
+      <c r="X5">
+        <v>-1.97</v>
+      </c>
+      <c r="Y5">
+        <v>6.16</v>
+      </c>
+      <c r="Z5">
+        <v>1.15</v>
+      </c>
       <c r="AC5" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1403,22 +1472,25 @@
       <c r="AG5">
         <v>2.596973657608032</v>
       </c>
-      <c r="AH5" t="s">
-        <v>196</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1436,7 +1508,7 @@
         <v>114848.54</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K6">
         <v>7</v>
@@ -1477,8 +1549,23 @@
       <c r="W6">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X6">
+        <v>-1.06</v>
+      </c>
+      <c r="Y6">
+        <v>9</v>
+      </c>
+      <c r="Z6">
+        <v>6.13</v>
+      </c>
       <c r="AC6" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1486,22 +1573,25 @@
       <c r="AG6">
         <v>5.323781490325928</v>
       </c>
-      <c r="AH6" t="s">
-        <v>196</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-0.55</v>
@@ -1519,7 +1609,7 @@
         <v>51151.95</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1560,8 +1650,23 @@
       <c r="W7">
         <v>-0.59</v>
       </c>
+      <c r="X7">
+        <v>1.94</v>
+      </c>
+      <c r="Y7">
+        <v>11.12</v>
+      </c>
+      <c r="Z7">
+        <v>2.49</v>
+      </c>
       <c r="AC7" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1569,22 +1674,25 @@
       <c r="AG7">
         <v>4.587695598602295</v>
       </c>
-      <c r="AH7" t="s">
-        <v>196</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300127</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-3.81</v>
@@ -1602,7 +1710,7 @@
         <v>59068.74</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1643,8 +1751,23 @@
       <c r="W8">
         <v>-0.93</v>
       </c>
+      <c r="X8">
+        <v>-2.96</v>
+      </c>
+      <c r="Y8">
+        <v>30.24</v>
+      </c>
+      <c r="Z8">
+        <v>0.53</v>
+      </c>
       <c r="AC8" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1652,22 +1775,25 @@
       <c r="AG8">
         <v>4.037618160247803</v>
       </c>
-      <c r="AH8" t="s">
-        <v>196</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300149</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.03</v>
@@ -1685,7 +1811,7 @@
         <v>234384.92</v>
       </c>
       <c r="J9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1726,8 +1852,23 @@
       <c r="W9">
         <v>-2.03</v>
       </c>
+      <c r="X9">
+        <v>3.56</v>
+      </c>
+      <c r="Y9">
+        <v>14.91</v>
+      </c>
+      <c r="Z9">
+        <v>8.44</v>
+      </c>
       <c r="AC9" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1735,22 +1876,25 @@
       <c r="AG9">
         <v>6.889118671417236</v>
       </c>
-      <c r="AH9" t="s">
-        <v>196</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.9</v>
@@ -1768,7 +1912,7 @@
         <v>156621.82</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1809,8 +1953,23 @@
       <c r="W10">
         <v>-1.89</v>
       </c>
+      <c r="X10">
+        <v>16.64</v>
+      </c>
+      <c r="Y10">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>20.03</v>
+      </c>
       <c r="AC10" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1818,22 +1977,25 @@
       <c r="AG10">
         <v>2.153886556625366</v>
       </c>
-      <c r="AH10" t="s">
-        <v>196</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300188</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-9.67</v>
@@ -1851,7 +2013,7 @@
         <v>182395.01</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1892,8 +2054,23 @@
       <c r="W11">
         <v>-1.01</v>
       </c>
+      <c r="X11">
+        <v>-5.13</v>
+      </c>
+      <c r="Y11">
+        <v>17.68</v>
+      </c>
+      <c r="Z11">
+        <v>-0.39</v>
+      </c>
       <c r="AC11" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1901,22 +2078,25 @@
       <c r="AG11">
         <v>2.346003293991089</v>
       </c>
-      <c r="AH11" t="s">
-        <v>196</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-4.88</v>
@@ -1934,7 +2114,7 @@
         <v>228151.83</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1975,8 +2155,23 @@
       <c r="W12">
         <v>-1.69</v>
       </c>
+      <c r="X12">
+        <v>7.02</v>
+      </c>
+      <c r="Y12">
+        <v>21.09</v>
+      </c>
+      <c r="Z12">
+        <v>10.48</v>
+      </c>
       <c r="AC12" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1984,22 +2179,25 @@
       <c r="AG12">
         <v>0.7953925132751465</v>
       </c>
-      <c r="AH12" t="s">
-        <v>196</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-3.35</v>
@@ -2017,7 +2215,7 @@
         <v>77862.05</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2058,8 +2256,23 @@
       <c r="W13">
         <v>0.02</v>
       </c>
+      <c r="X13">
+        <v>-1.73</v>
+      </c>
+      <c r="Y13">
+        <v>16.28</v>
+      </c>
+      <c r="Z13">
+        <v>0.87</v>
+      </c>
       <c r="AC13" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2067,22 +2280,25 @@
       <c r="AG13">
         <v>1.757021546363831</v>
       </c>
-      <c r="AH13" t="s">
-        <v>196</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.34</v>
@@ -2100,7 +2316,7 @@
         <v>78971.53</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2141,8 +2357,23 @@
       <c r="W14">
         <v>0.16</v>
       </c>
+      <c r="X14">
+        <v>7.09</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>10.24</v>
+      </c>
       <c r="AC14" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2150,22 +2381,25 @@
       <c r="AG14">
         <v>-0.9672574996948242</v>
       </c>
-      <c r="AH14" t="s">
-        <v>196</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>4.93</v>
@@ -2183,7 +2417,7 @@
         <v>141200.04</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2224,8 +2458,23 @@
       <c r="W15">
         <v>-0.17</v>
       </c>
+      <c r="X15">
+        <v>4.92</v>
+      </c>
+      <c r="Y15">
+        <v>4.82</v>
+      </c>
+      <c r="Z15">
+        <v>7.83</v>
+      </c>
       <c r="AC15" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2233,22 +2482,25 @@
       <c r="AG15">
         <v>5.778566837310791</v>
       </c>
-      <c r="AH15" t="s">
-        <v>196</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.59</v>
@@ -2266,7 +2518,7 @@
         <v>29982.24</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2307,8 +2559,23 @@
       <c r="W16">
         <v>-1.28</v>
       </c>
+      <c r="X16">
+        <v>0.55</v>
+      </c>
+      <c r="Y16">
+        <v>7.64</v>
+      </c>
+      <c r="Z16">
+        <v>5.23</v>
+      </c>
       <c r="AC16" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2316,22 +2583,25 @@
       <c r="AG16">
         <v>0.2900502681732178</v>
       </c>
-      <c r="AH16" t="s">
-        <v>196</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300291</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.63</v>
@@ -2349,7 +2619,7 @@
         <v>38153.83</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2390,8 +2660,23 @@
       <c r="W17">
         <v>-0.12</v>
       </c>
+      <c r="X17">
+        <v>-3.12</v>
+      </c>
+      <c r="Y17">
+        <v>6.38</v>
+      </c>
+      <c r="Z17">
+        <v>-0.31</v>
+      </c>
       <c r="AC17" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2399,22 +2684,25 @@
       <c r="AG17">
         <v>8.614136695861816</v>
       </c>
-      <c r="AH17" t="s">
-        <v>196</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300322</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1.82</v>
@@ -2432,7 +2720,7 @@
         <v>239887.77</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2473,8 +2761,23 @@
       <c r="W18">
         <v>0.48</v>
       </c>
+      <c r="X18">
+        <v>4.56</v>
+      </c>
+      <c r="Y18">
+        <v>21.48</v>
+      </c>
+      <c r="Z18">
+        <v>12.7</v>
+      </c>
       <c r="AC18" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2482,22 +2785,25 @@
       <c r="AG18">
         <v>3.377538442611694</v>
       </c>
-      <c r="AH18" t="s">
-        <v>197</v>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300363</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-4.67</v>
@@ -2515,7 +2821,7 @@
         <v>122281.18</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2556,8 +2862,23 @@
       <c r="W19">
         <v>-1.22</v>
       </c>
+      <c r="X19">
+        <v>-2.06</v>
+      </c>
+      <c r="Y19">
+        <v>24.7</v>
+      </c>
+      <c r="Z19">
+        <v>1.69</v>
+      </c>
       <c r="AC19" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2565,22 +2886,25 @@
       <c r="AG19">
         <v>8.32368278503418</v>
       </c>
-      <c r="AH19" t="s">
-        <v>196</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300378</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.44</v>
@@ -2598,7 +2922,7 @@
         <v>115824.92</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2639,8 +2963,23 @@
       <c r="W20">
         <v>-0.32</v>
       </c>
+      <c r="X20">
+        <v>6.98</v>
+      </c>
+      <c r="Y20">
+        <v>56.5</v>
+      </c>
+      <c r="Z20">
+        <v>15.02</v>
+      </c>
       <c r="AC20" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2648,22 +2987,25 @@
       <c r="AG20">
         <v>4.641100406646729</v>
       </c>
-      <c r="AH20" t="s">
-        <v>196</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300410</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-5.44</v>
@@ -2681,7 +3023,7 @@
         <v>62529.16</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2722,8 +3064,23 @@
       <c r="W21">
         <v>-2.77</v>
       </c>
+      <c r="X21">
+        <v>-0.12</v>
+      </c>
+      <c r="Y21">
+        <v>9.85</v>
+      </c>
+      <c r="Z21">
+        <v>15.75</v>
+      </c>
       <c r="AC21" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2731,22 +3088,25 @@
       <c r="AG21">
         <v>5.882627487182617</v>
       </c>
-      <c r="AH21" t="s">
-        <v>196</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300414</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-3.49</v>
@@ -2764,7 +3124,7 @@
         <v>99624.42999999999</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2805,8 +3165,23 @@
       <c r="W22">
         <v>-1.14</v>
       </c>
+      <c r="X22">
+        <v>-3.36</v>
+      </c>
+      <c r="Y22">
+        <v>16.01</v>
+      </c>
+      <c r="Z22">
+        <v>3.49</v>
+      </c>
       <c r="AC22" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2814,22 +3189,25 @@
       <c r="AG22">
         <v>0.5373808741569519</v>
       </c>
-      <c r="AH22" t="s">
-        <v>196</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300434</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>6.42</v>
@@ -2847,7 +3225,7 @@
         <v>80076.95</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2888,8 +3266,23 @@
       <c r="W23">
         <v>-0.43</v>
       </c>
+      <c r="X23">
+        <v>-2.67</v>
+      </c>
+      <c r="Y23">
+        <v>11.75</v>
+      </c>
+      <c r="Z23">
+        <v>1.29</v>
+      </c>
       <c r="AC23" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2897,22 +3290,25 @@
       <c r="AG23">
         <v>1.342010617256165</v>
       </c>
-      <c r="AH23" t="s">
-        <v>196</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300436</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>5.18</v>
@@ -2930,7 +3326,7 @@
         <v>162193.33</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24">
         <v>20</v>
@@ -2971,8 +3367,23 @@
       <c r="W24">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X24">
+        <v>18.04</v>
+      </c>
+      <c r="Y24">
+        <v>116.4</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
       <c r="AC24" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2980,22 +3391,25 @@
       <c r="AG24">
         <v>-1.065441250801086</v>
       </c>
-      <c r="AH24" t="s">
-        <v>196</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300469</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.87</v>
@@ -3013,7 +3427,7 @@
         <v>74616.62</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -3054,8 +3468,23 @@
       <c r="W25">
         <v>0.09</v>
       </c>
+      <c r="X25">
+        <v>0.19</v>
+      </c>
+      <c r="Y25">
+        <v>48.73</v>
+      </c>
+      <c r="Z25">
+        <v>2.98</v>
+      </c>
       <c r="AC25" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3063,22 +3492,25 @@
       <c r="AG25">
         <v>1.442960143089294</v>
       </c>
-      <c r="AH25" t="s">
-        <v>196</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300502</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-1.57</v>
@@ -3096,7 +3528,7 @@
         <v>1073677.31</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>26</v>
@@ -3137,8 +3569,23 @@
       <c r="W26">
         <v>-0.21</v>
       </c>
+      <c r="X26">
+        <v>-0.6</v>
+      </c>
+      <c r="Y26">
+        <v>200.88</v>
+      </c>
+      <c r="Z26">
+        <v>5.53</v>
+      </c>
       <c r="AC26" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3146,22 +3593,25 @@
       <c r="AG26">
         <v>0.9941340684890747</v>
       </c>
-      <c r="AH26" t="s">
-        <v>196</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300505</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.29</v>
@@ -3179,7 +3629,7 @@
         <v>59187.37</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3220,8 +3670,23 @@
       <c r="W27">
         <v>-0.18</v>
       </c>
+      <c r="X27">
+        <v>0.1</v>
+      </c>
+      <c r="Y27">
+        <v>21.07</v>
+      </c>
+      <c r="Z27">
+        <v>1.44</v>
+      </c>
       <c r="AC27" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3229,22 +3694,25 @@
       <c r="AG27">
         <v>1.774400234222412</v>
       </c>
-      <c r="AH27" t="s">
-        <v>196</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300522</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.52</v>
@@ -3262,7 +3730,7 @@
         <v>29591.26</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3303,8 +3771,23 @@
       <c r="W28">
         <v>-0.72</v>
       </c>
+      <c r="X28">
+        <v>0.4</v>
+      </c>
+      <c r="Y28">
+        <v>15.89</v>
+      </c>
+      <c r="Z28">
+        <v>5.51</v>
+      </c>
       <c r="AC28" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3312,22 +3795,25 @@
       <c r="AG28">
         <v>4.101464748382568</v>
       </c>
-      <c r="AH28" t="s">
-        <v>196</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300527</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>4.95</v>
@@ -3345,7 +3831,7 @@
         <v>167515.88</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -3386,8 +3872,23 @@
       <c r="W29">
         <v>0.44</v>
       </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>-100</v>
+      </c>
       <c r="AC29" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3395,22 +3896,25 @@
       <c r="AG29">
         <v>-0.3645551800727844</v>
       </c>
-      <c r="AH29" t="s">
-        <v>196</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300528</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -3428,7 +3932,7 @@
         <v>152527.1</v>
       </c>
       <c r="J30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3469,8 +3973,23 @@
       <c r="W30">
         <v>-1.92</v>
       </c>
+      <c r="X30">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y30">
+        <v>28.26</v>
+      </c>
+      <c r="Z30">
+        <v>11.61</v>
+      </c>
       <c r="AC30" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3478,22 +3997,25 @@
       <c r="AG30">
         <v>12.62017917633057</v>
       </c>
-      <c r="AH30" t="s">
-        <v>196</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300533</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>1.33</v>
@@ -3511,7 +4033,7 @@
         <v>94627.5</v>
       </c>
       <c r="J31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K31">
         <v>26</v>
@@ -3552,8 +4074,23 @@
       <c r="W31">
         <v>-0.52</v>
       </c>
+      <c r="X31">
+        <v>-4.84</v>
+      </c>
+      <c r="Y31">
+        <v>37.8</v>
+      </c>
+      <c r="Z31">
+        <v>-0.53</v>
+      </c>
       <c r="AC31" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3561,22 +4098,25 @@
       <c r="AG31">
         <v>0.897943913936615</v>
       </c>
-      <c r="AH31" t="s">
-        <v>196</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300537</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.61</v>
@@ -3594,7 +4134,7 @@
         <v>50029.62</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3635,8 +4175,23 @@
       <c r="W32">
         <v>0.52</v>
       </c>
+      <c r="X32">
+        <v>-3.12</v>
+      </c>
+      <c r="Y32">
+        <v>27.02</v>
+      </c>
+      <c r="Z32">
+        <v>1.58</v>
+      </c>
       <c r="AC32" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -3644,22 +4199,25 @@
       <c r="AG32">
         <v>3.937382221221924</v>
       </c>
-      <c r="AH32" t="s">
-        <v>197</v>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300539</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-3.32</v>
@@ -3677,7 +4235,7 @@
         <v>105702.69</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -3718,8 +4276,23 @@
       <c r="W33">
         <v>0.95</v>
       </c>
+      <c r="X33">
+        <v>-2.03</v>
+      </c>
+      <c r="Y33">
+        <v>29</v>
+      </c>
+      <c r="Z33">
+        <v>1.68</v>
+      </c>
       <c r="AC33" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3727,22 +4300,25 @@
       <c r="AG33">
         <v>2.526076793670654</v>
       </c>
-      <c r="AH33" t="s">
-        <v>196</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300548</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-1.44</v>
@@ -3760,7 +4336,7 @@
         <v>188689.59</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34">
         <v>12</v>
@@ -3801,8 +4377,23 @@
       <c r="W34">
         <v>-0.46</v>
       </c>
+      <c r="X34">
+        <v>-5.2</v>
+      </c>
+      <c r="Y34">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>4.12</v>
+      </c>
       <c r="AC34" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3810,22 +4401,25 @@
       <c r="AG34">
         <v>8.417681694030762</v>
       </c>
-      <c r="AH34" t="s">
-        <v>196</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300581</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-3.46</v>
@@ -3843,7 +4437,7 @@
         <v>197529.5</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -3884,8 +4478,23 @@
       <c r="W35">
         <v>-1.51</v>
       </c>
+      <c r="X35">
+        <v>2.58</v>
+      </c>
+      <c r="Y35">
+        <v>22.99</v>
+      </c>
+      <c r="Z35">
+        <v>4.17</v>
+      </c>
       <c r="AC35" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3893,22 +4502,25 @@
       <c r="AG35">
         <v>1.785178899765015</v>
       </c>
-      <c r="AH35" t="s">
-        <v>196</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300588</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-6.4</v>
@@ -3926,7 +4538,7 @@
         <v>54638.03</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3967,8 +4579,23 @@
       <c r="W36">
         <v>0.08</v>
       </c>
+      <c r="X36">
+        <v>3.66</v>
+      </c>
+      <c r="Y36">
+        <v>21.12</v>
+      </c>
+      <c r="Z36">
+        <v>11.98</v>
+      </c>
       <c r="AC36" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3976,22 +4603,25 @@
       <c r="AG36">
         <v>4.775768756866455</v>
       </c>
-      <c r="AH36" t="s">
-        <v>196</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300591</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-1.42</v>
@@ -4009,7 +4639,7 @@
         <v>94480.25</v>
       </c>
       <c r="J37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4050,8 +4680,23 @@
       <c r="W37">
         <v>-1.58</v>
       </c>
+      <c r="X37">
+        <v>0.93</v>
+      </c>
+      <c r="Y37">
+        <v>12.35</v>
+      </c>
+      <c r="Z37">
+        <v>4.4</v>
+      </c>
       <c r="AC37" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4059,22 +4704,25 @@
       <c r="AG37">
         <v>2.730390787124634</v>
       </c>
-      <c r="AH37" t="s">
-        <v>196</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300600</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>14.84</v>
@@ -4092,7 +4740,7 @@
         <v>135309.84</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4133,8 +4781,23 @@
       <c r="W38">
         <v>3.41</v>
       </c>
+      <c r="X38">
+        <v>-5.71</v>
+      </c>
+      <c r="Y38">
+        <v>17.44</v>
+      </c>
+      <c r="Z38">
+        <v>-3.27</v>
+      </c>
       <c r="AC38" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4142,22 +4805,25 @@
       <c r="AG38">
         <v>4.461266994476318</v>
       </c>
-      <c r="AH38" t="s">
-        <v>197</v>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300631</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-1.51</v>
@@ -4175,7 +4841,7 @@
         <v>36865.33</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K39">
         <v>13</v>
@@ -4216,8 +4882,23 @@
       <c r="W39">
         <v>-0.43</v>
       </c>
+      <c r="X39">
+        <v>-1.95</v>
+      </c>
+      <c r="Y39">
+        <v>31.28</v>
+      </c>
+      <c r="Z39">
+        <v>0.06</v>
+      </c>
       <c r="AC39" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4225,22 +4906,25 @@
       <c r="AG39">
         <v>5.746320724487305</v>
       </c>
-      <c r="AH39" t="s">
-        <v>196</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300644</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-5.49</v>
@@ -4258,7 +4942,7 @@
         <v>44247.91</v>
       </c>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -4299,8 +4983,23 @@
       <c r="W40">
         <v>-1.8</v>
       </c>
+      <c r="X40">
+        <v>-1.07</v>
+      </c>
+      <c r="Y40">
+        <v>33.5</v>
+      </c>
+      <c r="Z40">
+        <v>1.98</v>
+      </c>
       <c r="AC40" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4308,22 +5007,25 @@
       <c r="AG40">
         <v>3.399462938308716</v>
       </c>
-      <c r="AH40" t="s">
-        <v>196</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300683</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.71</v>
@@ -4341,7 +5043,7 @@
         <v>88835.57000000001</v>
       </c>
       <c r="J41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K41">
         <v>8</v>
@@ -4382,8 +5084,23 @@
       <c r="W41">
         <v>-0.7</v>
       </c>
+      <c r="X41">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>58.99</v>
+      </c>
+      <c r="Z41">
+        <v>13.49</v>
+      </c>
       <c r="AC41" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4391,22 +5108,25 @@
       <c r="AG41">
         <v>3.049731016159058</v>
       </c>
-      <c r="AH41" t="s">
-        <v>196</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300684</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.55</v>
@@ -4424,7 +5144,7 @@
         <v>64086.89</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4465,8 +5185,23 @@
       <c r="W42">
         <v>-1.19</v>
       </c>
+      <c r="X42">
+        <v>0.5</v>
+      </c>
+      <c r="Y42">
+        <v>31.1</v>
+      </c>
+      <c r="Z42">
+        <v>4.15</v>
+      </c>
       <c r="AC42" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4474,22 +5209,25 @@
       <c r="AG42">
         <v>3.885982036590576</v>
       </c>
-      <c r="AH42" t="s">
-        <v>196</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300706</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>11.82</v>
@@ -4507,7 +5245,7 @@
         <v>167385.84</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4548,8 +5286,23 @@
       <c r="W43">
         <v>-1.21</v>
       </c>
+      <c r="X43">
+        <v>-4.53</v>
+      </c>
+      <c r="Y43">
+        <v>38.33</v>
+      </c>
+      <c r="Z43">
+        <v>-0.7</v>
+      </c>
       <c r="AC43" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4557,22 +5310,25 @@
       <c r="AG43">
         <v>4.438031196594238</v>
       </c>
-      <c r="AH43" t="s">
-        <v>196</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300722</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-2.3</v>
@@ -4590,7 +5346,7 @@
         <v>72090.66</v>
       </c>
       <c r="J44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4631,8 +5387,23 @@
       <c r="W44">
         <v>-0.52</v>
       </c>
+      <c r="X44">
+        <v>0.28</v>
+      </c>
+      <c r="Y44">
+        <v>39.87</v>
+      </c>
+      <c r="Z44">
+        <v>2.02</v>
+      </c>
       <c r="AC44" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4640,22 +5411,25 @@
       <c r="AG44">
         <v>1.983777165412903</v>
       </c>
-      <c r="AH44" t="s">
-        <v>196</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300725</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-7.16</v>
@@ -4673,7 +5447,7 @@
         <v>172447.76</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4714,8 +5488,23 @@
       <c r="W45">
         <v>-0.36</v>
       </c>
+      <c r="X45">
+        <v>-0.08</v>
+      </c>
+      <c r="Y45">
+        <v>51.47</v>
+      </c>
+      <c r="Z45">
+        <v>4.4</v>
+      </c>
       <c r="AC45" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4723,22 +5512,25 @@
       <c r="AG45">
         <v>7.407939910888672</v>
       </c>
-      <c r="AH45" t="s">
-        <v>196</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300732</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4756,7 +5548,7 @@
         <v>62424.03</v>
       </c>
       <c r="J46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4797,8 +5589,23 @@
       <c r="W46">
         <v>4.93</v>
       </c>
+      <c r="X46">
+        <v>7.91</v>
+      </c>
+      <c r="Y46">
+        <v>12.74</v>
+      </c>
+      <c r="Z46">
+        <v>19.96</v>
+      </c>
       <c r="AC46" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4806,22 +5613,25 @@
       <c r="AG46">
         <v>9.079315185546875</v>
       </c>
-      <c r="AH46" t="s">
-        <v>197</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300747</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-0.33</v>
@@ -4839,7 +5649,7 @@
         <v>90016.95</v>
       </c>
       <c r="J47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -4880,8 +5690,23 @@
       <c r="W47">
         <v>-0.3</v>
       </c>
+      <c r="X47">
+        <v>-0.9</v>
+      </c>
+      <c r="Y47">
+        <v>30.76</v>
+      </c>
+      <c r="Z47">
+        <v>2.64</v>
+      </c>
       <c r="AC47" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4889,22 +5714,25 @@
       <c r="AG47">
         <v>5.952816963195801</v>
       </c>
-      <c r="AH47" t="s">
-        <v>196</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300748</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-2.84</v>
@@ -4922,7 +5750,7 @@
         <v>166795.06</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K48">
         <v>14</v>
@@ -4963,8 +5791,23 @@
       <c r="W48">
         <v>-0.89</v>
       </c>
+      <c r="X48">
+        <v>0.11</v>
+      </c>
+      <c r="Y48">
+        <v>27.82</v>
+      </c>
+      <c r="Z48">
+        <v>1.79</v>
+      </c>
       <c r="AC48" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4972,22 +5815,25 @@
       <c r="AG48">
         <v>2.678272724151611</v>
       </c>
-      <c r="AH48" t="s">
-        <v>196</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300803</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.02</v>
@@ -5005,7 +5851,7 @@
         <v>331733.66</v>
       </c>
       <c r="J49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K49">
         <v>24</v>
@@ -5046,8 +5892,23 @@
       <c r="W49">
         <v>-0.52</v>
       </c>
+      <c r="X49">
+        <v>-3.5</v>
+      </c>
+      <c r="Y49">
+        <v>92.67</v>
+      </c>
+      <c r="Z49">
+        <v>0.74</v>
+      </c>
       <c r="AC49" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5055,22 +5916,25 @@
       <c r="AG49">
         <v>2.924083948135376</v>
       </c>
-      <c r="AH49" t="s">
-        <v>196</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300835</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-2.3</v>
@@ -5088,7 +5952,7 @@
         <v>62030.52</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K50">
         <v>7</v>
@@ -5129,8 +5993,23 @@
       <c r="W50">
         <v>0.55</v>
       </c>
+      <c r="X50">
+        <v>0.92</v>
+      </c>
+      <c r="Y50">
+        <v>60.19</v>
+      </c>
+      <c r="Z50">
+        <v>5.04</v>
+      </c>
       <c r="AC50" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5138,22 +6017,25 @@
       <c r="AG50">
         <v>0.9838988184928894</v>
       </c>
-      <c r="AH50" t="s">
-        <v>196</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300869</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>9.640000000000001</v>
@@ -5171,7 +6053,7 @@
         <v>102227.46</v>
       </c>
       <c r="J51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5212,8 +6094,23 @@
       <c r="W51">
         <v>1.41</v>
       </c>
+      <c r="X51">
+        <v>1.07</v>
+      </c>
+      <c r="Y51">
+        <v>21.06</v>
+      </c>
+      <c r="Z51">
+        <v>2.83</v>
+      </c>
       <c r="AC51" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5221,22 +6118,25 @@
       <c r="AG51">
         <v>0.6184171438217163</v>
       </c>
-      <c r="AH51" t="s">
-        <v>196</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300872</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-8.41</v>
@@ -5254,7 +6154,7 @@
         <v>179628.22</v>
       </c>
       <c r="J52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K52">
         <v>5</v>
@@ -5295,8 +6195,23 @@
       <c r="W52">
         <v>-3.14</v>
       </c>
+      <c r="X52">
+        <v>-1.97</v>
+      </c>
+      <c r="Y52">
+        <v>25.86</v>
+      </c>
+      <c r="Z52">
+        <v>1.97</v>
+      </c>
       <c r="AC52" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5304,22 +6219,25 @@
       <c r="AG52">
         <v>1.866506218910217</v>
       </c>
-      <c r="AH52" t="s">
-        <v>196</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300877</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>20</v>
@@ -5337,7 +6255,7 @@
         <v>40130.02</v>
       </c>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5378,8 +6296,23 @@
       <c r="W53">
         <v>1.11</v>
       </c>
+      <c r="X53">
+        <v>-0.92</v>
+      </c>
+      <c r="Y53">
+        <v>33.47</v>
+      </c>
+      <c r="Z53">
+        <v>9.380000000000001</v>
+      </c>
       <c r="AC53" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>1</v>
@@ -5387,22 +6320,25 @@
       <c r="AG53">
         <v>12.60761737823486</v>
       </c>
-      <c r="AH53" t="s">
-        <v>196</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300885</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>13.85</v>
@@ -5420,7 +6356,7 @@
         <v>114556.51</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K54">
         <v>6</v>
@@ -5461,8 +6397,23 @@
       <c r="W54">
         <v>-2.01</v>
       </c>
+      <c r="X54">
+        <v>-0.99</v>
+      </c>
+      <c r="Y54">
+        <v>25.54</v>
+      </c>
+      <c r="Z54">
+        <v>9.380000000000001</v>
+      </c>
       <c r="AC54" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5470,22 +6421,25 @@
       <c r="AG54">
         <v>3.609961032867432</v>
       </c>
-      <c r="AH54" t="s">
-        <v>196</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300903</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-1.55</v>
@@ -5503,7 +6457,7 @@
         <v>48762.25</v>
       </c>
       <c r="J55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -5544,8 +6498,23 @@
       <c r="W55">
         <v>-0.97</v>
       </c>
+      <c r="X55">
+        <v>-1.08</v>
+      </c>
+      <c r="Y55">
+        <v>12.78</v>
+      </c>
+      <c r="Z55">
+        <v>6.15</v>
+      </c>
       <c r="AC55" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5553,22 +6522,25 @@
       <c r="AG55">
         <v>2.902702808380127</v>
       </c>
-      <c r="AH55" t="s">
-        <v>196</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300907</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>3.45</v>
@@ -5586,7 +6558,7 @@
         <v>36162.07</v>
       </c>
       <c r="J56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5627,8 +6599,23 @@
       <c r="W56">
         <v>0.17</v>
       </c>
+      <c r="X56">
+        <v>1.39</v>
+      </c>
+      <c r="Y56">
+        <v>33.78</v>
+      </c>
+      <c r="Z56">
+        <v>2.27</v>
+      </c>
       <c r="AC56" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5636,22 +6623,25 @@
       <c r="AG56">
         <v>2.103811025619507</v>
       </c>
-      <c r="AH56" t="s">
-        <v>196</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300950</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-3.35</v>
@@ -5669,7 +6659,7 @@
         <v>32236.6</v>
       </c>
       <c r="J57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K57">
         <v>4</v>
@@ -5710,8 +6700,23 @@
       <c r="W57">
         <v>-1.23</v>
       </c>
+      <c r="X57">
+        <v>-1.88</v>
+      </c>
+      <c r="Y57">
+        <v>30.86</v>
+      </c>
+      <c r="Z57">
+        <v>1.75</v>
+      </c>
       <c r="AC57" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5719,22 +6724,25 @@
       <c r="AG57">
         <v>2.930304288864136</v>
       </c>
-      <c r="AH57" t="s">
-        <v>196</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300987</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -5752,7 +6760,7 @@
         <v>64413.32</v>
       </c>
       <c r="J58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -5793,8 +6801,23 @@
       <c r="W58">
         <v>0.4</v>
       </c>
+      <c r="X58">
+        <v>-1.39</v>
+      </c>
+      <c r="Y58">
+        <v>22.79</v>
+      </c>
+      <c r="Z58">
+        <v>2.2</v>
+      </c>
       <c r="AC58" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>1</v>
@@ -5802,22 +6825,25 @@
       <c r="AG58">
         <v>4.251406669616699</v>
       </c>
-      <c r="AH58" t="s">
-        <v>197</v>
+      <c r="AH58">
+        <v>1</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301007</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>0.89</v>
@@ -5835,7 +6861,7 @@
         <v>71400.42</v>
       </c>
       <c r="J59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K59">
         <v>4</v>
@@ -5876,8 +6902,23 @@
       <c r="W59">
         <v>-1</v>
       </c>
+      <c r="X59">
+        <v>-0.05</v>
+      </c>
+      <c r="Y59">
+        <v>39.68</v>
+      </c>
+      <c r="Z59">
+        <v>2.96</v>
+      </c>
       <c r="AC59" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5885,22 +6926,25 @@
       <c r="AG59">
         <v>6.398940086364746</v>
       </c>
-      <c r="AH59" t="s">
-        <v>196</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301038</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>10.86</v>
@@ -5918,7 +6962,7 @@
         <v>129004.61</v>
       </c>
       <c r="J60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5959,8 +7003,23 @@
       <c r="W60">
         <v>-0.08</v>
       </c>
+      <c r="X60">
+        <v>-10</v>
+      </c>
+      <c r="Y60">
+        <v>32.5</v>
+      </c>
+      <c r="Z60">
+        <v>-4.41</v>
+      </c>
       <c r="AC60" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5968,22 +7027,25 @@
       <c r="AG60">
         <v>6.984531879425049</v>
       </c>
-      <c r="AH60" t="s">
-        <v>196</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301095</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>0.97</v>
@@ -6001,7 +7063,7 @@
         <v>60166.14</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6042,8 +7104,23 @@
       <c r="W61">
         <v>0.12</v>
       </c>
+      <c r="X61">
+        <v>0.8</v>
+      </c>
+      <c r="Y61">
+        <v>65.97</v>
+      </c>
+      <c r="Z61">
+        <v>5.54</v>
+      </c>
       <c r="AC61" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6051,22 +7128,25 @@
       <c r="AG61">
         <v>3.960144996643066</v>
       </c>
-      <c r="AH61" t="s">
-        <v>196</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301132</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.45</v>
@@ -6084,7 +7164,7 @@
         <v>56699.47</v>
       </c>
       <c r="J62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6125,8 +7205,23 @@
       <c r="W62">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X62">
+        <v>-3.2</v>
+      </c>
+      <c r="Y62">
+        <v>40.51</v>
+      </c>
+      <c r="Z62">
+        <v>1.35</v>
+      </c>
       <c r="AC62" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6134,22 +7229,25 @@
       <c r="AG62">
         <v>-0.1663144379854202</v>
       </c>
-      <c r="AH62" t="s">
-        <v>196</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301150</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-5.16</v>
@@ -6167,7 +7265,7 @@
         <v>42537.43</v>
       </c>
       <c r="J63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6208,8 +7306,23 @@
       <c r="W63">
         <v>-1.28</v>
       </c>
+      <c r="X63">
+        <v>11.69</v>
+      </c>
+      <c r="Y63">
+        <v>30.5</v>
+      </c>
+      <c r="Z63">
+        <v>19.28</v>
+      </c>
       <c r="AC63" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6217,22 +7330,25 @@
       <c r="AG63">
         <v>0.1157940179109573</v>
       </c>
-      <c r="AH63" t="s">
-        <v>196</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301151</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>4.67</v>
@@ -6250,7 +7366,7 @@
         <v>54848.15</v>
       </c>
       <c r="J64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6291,8 +7407,23 @@
       <c r="W64">
         <v>0.39</v>
       </c>
+      <c r="X64">
+        <v>-3.55</v>
+      </c>
+      <c r="Y64">
+        <v>24.32</v>
+      </c>
+      <c r="Z64">
+        <v>1.46</v>
+      </c>
       <c r="AC64" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6300,22 +7431,25 @@
       <c r="AG64">
         <v>2.658178567886353</v>
       </c>
-      <c r="AH64" t="s">
-        <v>196</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301161</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.46</v>
@@ -6333,7 +7467,7 @@
         <v>52537.07</v>
       </c>
       <c r="J65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6374,8 +7508,23 @@
       <c r="W65">
         <v>-0.49</v>
       </c>
+      <c r="X65">
+        <v>-4.1</v>
+      </c>
+      <c r="Y65">
+        <v>29.5</v>
+      </c>
+      <c r="Z65">
+        <v>-0.97</v>
+      </c>
       <c r="AC65" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6383,22 +7532,25 @@
       <c r="AG65">
         <v>-0.8210096955299377</v>
       </c>
-      <c r="AH65" t="s">
-        <v>196</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301176</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>0.66</v>
@@ -6416,7 +7568,7 @@
         <v>40742.6</v>
       </c>
       <c r="J66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6457,8 +7609,23 @@
       <c r="W66">
         <v>-0.8</v>
       </c>
+      <c r="X66">
+        <v>-5.2</v>
+      </c>
+      <c r="Y66">
+        <v>34.3</v>
+      </c>
+      <c r="Z66">
+        <v>2.57</v>
+      </c>
       <c r="AC66" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6466,22 +7633,25 @@
       <c r="AG66">
         <v>-1.179651975631714</v>
       </c>
-      <c r="AH66" t="s">
-        <v>196</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301183</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.86</v>
@@ -6499,7 +7669,7 @@
         <v>53062.88</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K67">
         <v>11</v>
@@ -6540,8 +7710,23 @@
       <c r="W67">
         <v>-1.04</v>
       </c>
+      <c r="X67">
+        <v>5.94</v>
+      </c>
+      <c r="Y67">
+        <v>74.3</v>
+      </c>
+      <c r="Z67">
+        <v>11.71</v>
+      </c>
       <c r="AC67" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6549,22 +7734,25 @@
       <c r="AG67">
         <v>1.095926761627197</v>
       </c>
-      <c r="AH67" t="s">
-        <v>196</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301200</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-0.8</v>
@@ -6582,7 +7770,7 @@
         <v>81076.59</v>
       </c>
       <c r="J68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K68">
         <v>5</v>
@@ -6623,8 +7811,23 @@
       <c r="W68">
         <v>0.82</v>
       </c>
+      <c r="X68">
+        <v>9.76</v>
+      </c>
+      <c r="Y68">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>17.41</v>
+      </c>
       <c r="AC68" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6632,22 +7835,25 @@
       <c r="AG68">
         <v>5.450716018676758</v>
       </c>
-      <c r="AH68" t="s">
-        <v>196</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301217</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-0.78</v>
@@ -6665,7 +7871,7 @@
         <v>162752.65</v>
       </c>
       <c r="J69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K69">
         <v>18</v>
@@ -6706,8 +7912,23 @@
       <c r="W69">
         <v>-0.1</v>
       </c>
+      <c r="X69">
+        <v>-2.07</v>
+      </c>
+      <c r="Y69">
+        <v>27.6</v>
+      </c>
+      <c r="Z69">
+        <v>3.88</v>
+      </c>
       <c r="AC69" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6715,22 +7936,25 @@
       <c r="AG69">
         <v>2.893095016479492</v>
       </c>
-      <c r="AH69" t="s">
-        <v>196</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301285</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-5.42</v>
@@ -6748,7 +7972,7 @@
         <v>74796.61</v>
       </c>
       <c r="J70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6789,8 +8013,23 @@
       <c r="W70">
         <v>1.42</v>
       </c>
+      <c r="X70">
+        <v>-2.92</v>
+      </c>
+      <c r="Y70">
+        <v>43</v>
+      </c>
+      <c r="Z70">
+        <v>3.07</v>
+      </c>
       <c r="AC70" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6798,22 +8037,25 @@
       <c r="AG70">
         <v>4.728188991546631</v>
       </c>
-      <c r="AH70" t="s">
-        <v>196</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301306</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-3.3</v>
@@ -6831,7 +8073,7 @@
         <v>59740.81</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6872,8 +8114,23 @@
       <c r="W71">
         <v>-2.93</v>
       </c>
+      <c r="X71">
+        <v>-4.09</v>
+      </c>
+      <c r="Y71">
+        <v>67.03</v>
+      </c>
+      <c r="Z71">
+        <v>3.46</v>
+      </c>
       <c r="AC71" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6881,22 +8138,25 @@
       <c r="AG71">
         <v>1.203306913375854</v>
       </c>
-      <c r="AH71" t="s">
-        <v>196</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301345</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-0.38</v>
@@ -6914,7 +8174,7 @@
         <v>39003.12</v>
       </c>
       <c r="J72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -6955,8 +8215,23 @@
       <c r="W72">
         <v>0.16</v>
       </c>
+      <c r="X72">
+        <v>-2.23</v>
+      </c>
+      <c r="Y72">
+        <v>164.37</v>
+      </c>
+      <c r="Z72">
+        <v>2.26</v>
+      </c>
       <c r="AC72" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6964,22 +8239,25 @@
       <c r="AG72">
         <v>6.346301555633545</v>
       </c>
-      <c r="AH72" t="s">
-        <v>196</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301357</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>0.54</v>
@@ -6997,7 +8275,7 @@
         <v>107520.79</v>
       </c>
       <c r="J73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7038,8 +8316,23 @@
       <c r="W73">
         <v>-3.26</v>
       </c>
+      <c r="X73">
+        <v>17.22</v>
+      </c>
+      <c r="Y73">
+        <v>105</v>
+      </c>
+      <c r="Z73">
+        <v>19.55</v>
+      </c>
       <c r="AC73" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7047,22 +8340,25 @@
       <c r="AG73">
         <v>2.912661552429199</v>
       </c>
-      <c r="AH73" t="s">
-        <v>196</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301377</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-2.82</v>
@@ -7080,7 +8376,7 @@
         <v>44407.42</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K74">
         <v>12</v>
@@ -7121,8 +8417,23 @@
       <c r="W74">
         <v>-0.06</v>
       </c>
+      <c r="X74">
+        <v>-1.38</v>
+      </c>
+      <c r="Y74">
+        <v>57.5</v>
+      </c>
+      <c r="Z74">
+        <v>7.58</v>
+      </c>
       <c r="AC74" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7130,22 +8441,25 @@
       <c r="AG74">
         <v>3.733990430831909</v>
       </c>
-      <c r="AH74" t="s">
-        <v>196</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301389</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-2.49</v>
@@ -7163,7 +8477,7 @@
         <v>59812.1</v>
       </c>
       <c r="J75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K75">
         <v>17</v>
@@ -7204,8 +8518,23 @@
       <c r="W75">
         <v>-1.78</v>
       </c>
+      <c r="X75">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>39.44</v>
+      </c>
+      <c r="Z75">
+        <v>11.89</v>
+      </c>
       <c r="AC75" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD75">
+        <v>1</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>1</v>
@@ -7213,22 +8542,25 @@
       <c r="AG75">
         <v>4.651281356811523</v>
       </c>
-      <c r="AH75" t="s">
-        <v>196</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301392</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>3.93</v>
@@ -7246,7 +8578,7 @@
         <v>57582.69</v>
       </c>
       <c r="J76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7287,8 +8619,23 @@
       <c r="W76">
         <v>-0.01</v>
       </c>
+      <c r="X76">
+        <v>-4.58</v>
+      </c>
+      <c r="Y76">
+        <v>167.2</v>
+      </c>
+      <c r="Z76">
+        <v>0.55</v>
+      </c>
       <c r="AC76" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7296,22 +8643,25 @@
       <c r="AG76">
         <v>-0.3402800559997559</v>
       </c>
-      <c r="AH76" t="s">
-        <v>196</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301421</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-0.29</v>
@@ -7329,7 +8679,7 @@
         <v>41378.33</v>
       </c>
       <c r="J77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K77">
         <v>28</v>
@@ -7370,8 +8720,23 @@
       <c r="W77">
         <v>-0.61</v>
       </c>
+      <c r="X77">
+        <v>-3.68</v>
+      </c>
+      <c r="Y77">
+        <v>78.5</v>
+      </c>
+      <c r="Z77">
+        <v>0.53</v>
+      </c>
       <c r="AC77" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7379,22 +8744,25 @@
       <c r="AG77">
         <v>4.458560466766357</v>
       </c>
-      <c r="AH77" t="s">
-        <v>196</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301511</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>3.66</v>
@@ -7412,7 +8780,7 @@
         <v>251006.8</v>
       </c>
       <c r="J78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78">
         <v>27</v>
@@ -7453,8 +8821,23 @@
       <c r="W78">
         <v>2.53</v>
       </c>
+      <c r="X78">
+        <v>1.5</v>
+      </c>
+      <c r="Y78">
+        <v>38.35</v>
+      </c>
+      <c r="Z78">
+        <v>8.33</v>
+      </c>
       <c r="AC78" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>1</v>
@@ -7462,22 +8845,25 @@
       <c r="AG78">
         <v>8.71004581451416</v>
       </c>
-      <c r="AH78" t="s">
-        <v>197</v>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301526</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-2.4</v>
@@ -7495,7 +8881,7 @@
         <v>49511.06</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K79">
         <v>17</v>
@@ -7536,8 +8922,23 @@
       <c r="W79">
         <v>-0.82</v>
       </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>5.09</v>
+      </c>
+      <c r="Z79">
+        <v>4.3</v>
+      </c>
       <c r="AC79" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7545,22 +8946,25 @@
       <c r="AG79">
         <v>4.757205486297607</v>
       </c>
-      <c r="AH79" t="s">
-        <v>196</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301529</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-4.37</v>
@@ -7578,7 +8982,7 @@
         <v>36346.83</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -7619,8 +9023,23 @@
       <c r="W80">
         <v>-2.2</v>
       </c>
+      <c r="X80">
+        <v>6.27</v>
+      </c>
+      <c r="Y80">
+        <v>61.7</v>
+      </c>
+      <c r="Z80">
+        <v>7.53</v>
+      </c>
       <c r="AC80" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7628,22 +9047,25 @@
       <c r="AG80">
         <v>1.34827446937561</v>
       </c>
-      <c r="AH80" t="s">
-        <v>196</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301580</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-4.51</v>
@@ -7661,7 +9083,7 @@
         <v>55904.74</v>
       </c>
       <c r="J81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7702,8 +9124,23 @@
       <c r="W81">
         <v>-0.72</v>
       </c>
+      <c r="X81">
+        <v>-2.63</v>
+      </c>
+      <c r="Y81">
+        <v>51.61</v>
+      </c>
+      <c r="Z81">
+        <v>1.2</v>
+      </c>
       <c r="AC81" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7711,22 +9148,25 @@
       <c r="AG81">
         <v>5.354323863983154</v>
       </c>
-      <c r="AH81" t="s">
-        <v>196</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301626</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-2.79</v>
@@ -7744,7 +9184,7 @@
         <v>35123.98</v>
       </c>
       <c r="J82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K82">
         <v>7</v>
@@ -7785,8 +9225,23 @@
       <c r="W82">
         <v>-1.34</v>
       </c>
+      <c r="X82">
+        <v>0.47</v>
+      </c>
+      <c r="Y82">
+        <v>145.96</v>
+      </c>
+      <c r="Z82">
+        <v>4.07</v>
+      </c>
       <c r="AC82" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7794,22 +9249,25 @@
       <c r="AG82">
         <v>0.8098853230476379</v>
       </c>
-      <c r="AH82" t="s">
-        <v>196</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688011</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>1.16</v>
@@ -7827,7 +9285,7 @@
         <v>32960.81</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -7868,8 +9326,23 @@
       <c r="W83">
         <v>-0.09</v>
       </c>
+      <c r="X83">
+        <v>-1.54</v>
+      </c>
+      <c r="Y83">
+        <v>42.01</v>
+      </c>
+      <c r="Z83">
+        <v>2.44</v>
+      </c>
       <c r="AC83" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7877,22 +9350,25 @@
       <c r="AG83">
         <v>3.793925046920776</v>
       </c>
-      <c r="AH83" t="s">
-        <v>196</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688020</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-1.71</v>
@@ -7910,7 +9386,7 @@
         <v>71509.2</v>
       </c>
       <c r="J84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -7951,8 +9427,23 @@
       <c r="W84">
         <v>-1.42</v>
       </c>
+      <c r="X84">
+        <v>2.12</v>
+      </c>
+      <c r="Y84">
+        <v>62.5</v>
+      </c>
+      <c r="Z84">
+        <v>12.41</v>
+      </c>
       <c r="AC84" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7960,22 +9451,25 @@
       <c r="AG84">
         <v>1.864548563957214</v>
       </c>
-      <c r="AH84" t="s">
-        <v>196</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688062</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>-4.81</v>
@@ -7993,7 +9487,7 @@
         <v>58547.19</v>
       </c>
       <c r="J85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8034,8 +9528,23 @@
       <c r="W85">
         <v>-0.5</v>
       </c>
+      <c r="X85">
+        <v>3.88</v>
+      </c>
+      <c r="Y85">
+        <v>37</v>
+      </c>
+      <c r="Z85">
+        <v>11.38</v>
+      </c>
       <c r="AC85" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8043,22 +9552,25 @@
       <c r="AG85">
         <v>5.500123500823975</v>
       </c>
-      <c r="AH85" t="s">
-        <v>196</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688110</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>17.33</v>
@@ -8076,7 +9588,7 @@
         <v>401315.17</v>
       </c>
       <c r="J86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8117,8 +9629,23 @@
       <c r="W86">
         <v>-2.1</v>
       </c>
+      <c r="X86">
+        <v>19.99</v>
+      </c>
+      <c r="Y86">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="Z86">
+        <v>19.99</v>
+      </c>
       <c r="AC86" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD86">
+        <v>1</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -8126,22 +9653,25 @@
       <c r="AG86">
         <v>2.565933465957642</v>
       </c>
-      <c r="AH86" t="s">
-        <v>196</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688189</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>20</v>
@@ -8159,7 +9689,7 @@
         <v>69277.78999999999</v>
       </c>
       <c r="J87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -8200,8 +9730,23 @@
       <c r="W87">
         <v>2.08</v>
       </c>
+      <c r="X87">
+        <v>20.03</v>
+      </c>
+      <c r="Y87">
+        <v>17.14</v>
+      </c>
+      <c r="Z87">
+        <v>20.03</v>
+      </c>
       <c r="AC87" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD87">
+        <v>1</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8209,22 +9754,25 @@
       <c r="AG87">
         <v>17.68611335754395</v>
       </c>
-      <c r="AH87" t="s">
-        <v>197</v>
+      <c r="AH87">
+        <v>1</v>
+      </c>
+      <c r="AI87">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688202</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>-6.55</v>
@@ -8242,7 +9790,7 @@
         <v>66809.48</v>
       </c>
       <c r="J88" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K88">
         <v>17</v>
@@ -8283,8 +9831,23 @@
       <c r="W88">
         <v>-1.21</v>
       </c>
+      <c r="X88">
+        <v>1.04</v>
+      </c>
+      <c r="Y88">
+        <v>65.16</v>
+      </c>
+      <c r="Z88">
+        <v>3.84</v>
+      </c>
       <c r="AC88" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>1</v>
@@ -8292,22 +9855,25 @@
       <c r="AG88">
         <v>5.601987838745117</v>
       </c>
-      <c r="AH88" t="s">
-        <v>196</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688210</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-5.08</v>
@@ -8325,7 +9891,7 @@
         <v>35959.3</v>
       </c>
       <c r="J89" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K89">
         <v>5</v>
@@ -8366,8 +9932,23 @@
       <c r="W89">
         <v>-0.65</v>
       </c>
+      <c r="X89">
+        <v>-1.19</v>
+      </c>
+      <c r="Y89">
+        <v>35.21</v>
+      </c>
+      <c r="Z89">
+        <v>2.32</v>
+      </c>
       <c r="AC89" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8375,22 +9956,25 @@
       <c r="AG89">
         <v>2.484096765518188</v>
       </c>
-      <c r="AH89" t="s">
-        <v>196</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688221</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-0.89</v>
@@ -8408,7 +9992,7 @@
         <v>89350.60000000001</v>
       </c>
       <c r="J90" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K90">
         <v>3</v>
@@ -8449,8 +10033,23 @@
       <c r="W90">
         <v>0.04</v>
       </c>
+      <c r="X90">
+        <v>-3.38</v>
+      </c>
+      <c r="Y90">
+        <v>22.6</v>
+      </c>
+      <c r="Z90">
+        <v>1.71</v>
+      </c>
       <c r="AC90" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8458,22 +10057,25 @@
       <c r="AG90">
         <v>4.387564659118652</v>
       </c>
-      <c r="AH90" t="s">
-        <v>196</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688222</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-0.3</v>
@@ -8491,7 +10093,7 @@
         <v>86797.56</v>
       </c>
       <c r="J91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K91">
         <v>9</v>
@@ -8532,8 +10134,23 @@
       <c r="W91">
         <v>0.25</v>
       </c>
+      <c r="X91">
+        <v>-0.89</v>
+      </c>
+      <c r="Y91">
+        <v>24.2</v>
+      </c>
+      <c r="Z91">
+        <v>2.33</v>
+      </c>
       <c r="AC91" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8541,22 +10158,25 @@
       <c r="AG91">
         <v>8.29601001739502</v>
       </c>
-      <c r="AH91" t="s">
-        <v>196</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688313</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-7.6</v>
@@ -8574,7 +10194,7 @@
         <v>314147.15</v>
       </c>
       <c r="J92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K92">
         <v>31</v>
@@ -8615,8 +10235,23 @@
       <c r="W92">
         <v>-1.33</v>
       </c>
+      <c r="X92">
+        <v>-12.46</v>
+      </c>
+      <c r="Y92">
+        <v>64.28</v>
+      </c>
+      <c r="Z92">
+        <v>4.01</v>
+      </c>
       <c r="AC92" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8624,22 +10259,25 @@
       <c r="AG92">
         <v>4.363544464111328</v>
       </c>
-      <c r="AH92" t="s">
-        <v>196</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688321</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-3.18</v>
@@ -8657,7 +10295,7 @@
         <v>80031.47</v>
       </c>
       <c r="J93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K93">
         <v>22</v>
@@ -8698,8 +10336,23 @@
       <c r="W93">
         <v>-0.29</v>
       </c>
+      <c r="X93">
+        <v>0.27</v>
+      </c>
+      <c r="Y93">
+        <v>39.06</v>
+      </c>
+      <c r="Z93">
+        <v>5.14</v>
+      </c>
       <c r="AC93" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8707,22 +10360,25 @@
       <c r="AG93">
         <v>3.803361892700195</v>
       </c>
-      <c r="AH93" t="s">
-        <v>196</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688425</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-3.56</v>
@@ -8740,7 +10396,7 @@
         <v>154106.88</v>
       </c>
       <c r="J94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K94">
         <v>5</v>
@@ -8781,8 +10437,23 @@
       <c r="W94">
         <v>-0.29</v>
       </c>
+      <c r="X94">
+        <v>-3.69</v>
+      </c>
+      <c r="Y94">
+        <v>6.55</v>
+      </c>
+      <c r="Z94">
+        <v>0.61</v>
+      </c>
       <c r="AC94" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8790,22 +10461,25 @@
       <c r="AG94">
         <v>2.993947982788086</v>
       </c>
-      <c r="AH94" t="s">
-        <v>196</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688499</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-4.67</v>
@@ -8823,7 +10497,7 @@
         <v>82093.50999999999</v>
       </c>
       <c r="J95" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K95">
         <v>32</v>
@@ -8864,8 +10538,23 @@
       <c r="W95">
         <v>-0.34</v>
       </c>
+      <c r="X95">
+        <v>-2.95</v>
+      </c>
+      <c r="Y95">
+        <v>54.41</v>
+      </c>
+      <c r="Z95">
+        <v>0.98</v>
+      </c>
       <c r="AC95" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -8873,22 +10562,25 @@
       <c r="AG95">
         <v>8.572725296020508</v>
       </c>
-      <c r="AH95" t="s">
-        <v>196</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688502</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0.66</v>
@@ -8906,7 +10598,7 @@
         <v>63198.84</v>
       </c>
       <c r="J96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K96">
         <v>3</v>
@@ -8947,8 +10639,23 @@
       <c r="W96">
         <v>0.15</v>
       </c>
+      <c r="X96">
+        <v>-4.51</v>
+      </c>
+      <c r="Y96">
+        <v>348.88</v>
+      </c>
+      <c r="Z96">
+        <v>0.19</v>
+      </c>
       <c r="AC96" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8956,22 +10663,25 @@
       <c r="AG96">
         <v>2.950794696807861</v>
       </c>
-      <c r="AH96" t="s">
-        <v>196</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688556</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-3.64</v>
@@ -8989,7 +10699,7 @@
         <v>57393.67</v>
       </c>
       <c r="J97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -9030,8 +10740,23 @@
       <c r="W97">
         <v>-0.49</v>
       </c>
+      <c r="X97">
+        <v>-1.32</v>
+      </c>
+      <c r="Y97">
+        <v>11.34</v>
+      </c>
+      <c r="Z97">
+        <v>6.98</v>
+      </c>
       <c r="AC97" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9039,22 +10764,25 @@
       <c r="AG97">
         <v>4.051740646362305</v>
       </c>
-      <c r="AH97" t="s">
-        <v>196</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688603</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>2.15</v>
@@ -9072,7 +10800,7 @@
         <v>53921.77</v>
       </c>
       <c r="J98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -9113,8 +10841,23 @@
       <c r="W98">
         <v>-0.28</v>
       </c>
+      <c r="X98">
+        <v>1.97</v>
+      </c>
+      <c r="Y98">
+        <v>70</v>
+      </c>
+      <c r="Z98">
+        <v>9.380000000000001</v>
+      </c>
       <c r="AC98" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9122,22 +10865,25 @@
       <c r="AG98">
         <v>4.294319152832031</v>
       </c>
-      <c r="AH98" t="s">
-        <v>196</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688630</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>-2.35</v>
@@ -9155,7 +10901,7 @@
         <v>164749.66</v>
       </c>
       <c r="J99" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K99">
         <v>5</v>
@@ -9196,8 +10942,23 @@
       <c r="W99">
         <v>-1.53</v>
       </c>
+      <c r="X99">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>134.2</v>
+      </c>
+      <c r="Z99">
+        <v>8.550000000000001</v>
+      </c>
       <c r="AC99" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9205,22 +10966,25 @@
       <c r="AG99">
         <v>0.754616916179657</v>
       </c>
-      <c r="AH99" t="s">
-        <v>196</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688660</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>1.26</v>
@@ -9238,7 +11002,7 @@
         <v>135653.61</v>
       </c>
       <c r="J100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K100">
         <v>6</v>
@@ -9279,8 +11043,23 @@
       <c r="W100">
         <v>-0.02</v>
       </c>
+      <c r="X100">
+        <v>-16.61</v>
+      </c>
+      <c r="Y100">
+        <v>15.91</v>
+      </c>
+      <c r="Z100">
+        <v>-5.63</v>
+      </c>
       <c r="AC100" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>1</v>
@@ -9288,22 +11067,25 @@
       <c r="AG100">
         <v>1.278507232666016</v>
       </c>
-      <c r="AH100" t="s">
-        <v>196</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688668</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>-1.93</v>
@@ -9321,7 +11103,7 @@
         <v>55436.61</v>
       </c>
       <c r="J101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K101">
         <v>10</v>
@@ -9362,8 +11144,23 @@
       <c r="W101">
         <v>0.15</v>
       </c>
+      <c r="X101">
+        <v>10.24</v>
+      </c>
+      <c r="Y101">
+        <v>101.5</v>
+      </c>
+      <c r="Z101">
+        <v>16.68</v>
+      </c>
       <c r="AC101" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9371,22 +11168,25 @@
       <c r="AG101">
         <v>5.067531585693359</v>
       </c>
-      <c r="AH101" t="s">
-        <v>196</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688708</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>1.61</v>
@@ -9404,7 +11204,7 @@
         <v>29111.66</v>
       </c>
       <c r="J102" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9445,8 +11245,23 @@
       <c r="W102">
         <v>0.01</v>
       </c>
+      <c r="X102">
+        <v>3.98</v>
+      </c>
+      <c r="Y102">
+        <v>85.5</v>
+      </c>
+      <c r="Z102">
+        <v>5.71</v>
+      </c>
       <c r="AC102" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9454,8 +11269,11 @@
       <c r="AG102">
         <v>1.73582124710083</v>
       </c>
-      <c r="AH102" t="s">
-        <v>196</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
